--- a/documentation/GANTT_Gitcon_HoeL.xlsx
+++ b/documentation/GANTT_Gitcon_HoeL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f16127f033ccfed8/Dokumente/GitHub/MTAP-MIDI-Guitar-Converter/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{75AB08D4-A599-4493-B023-66F01C1C183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C340AE1C-5836-49AF-B922-326E4E8ED3E0}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{75AB08D4-A599-4493-B023-66F01C1C183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1580508B-27DE-4756-BCF6-E6BB2A0E6136}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="3600" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Dauer</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>2. Qtl. 2023</t>
+  </si>
+  <si>
+    <t>◊ 13.05.</t>
   </si>
 </sst>
 </file>
@@ -891,18 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,9 +908,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -994,6 +982,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1009,6 +1012,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1335,7 +1342,7 @@
   <dimension ref="A1:AX31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1349,63 +1356,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="17" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17" t="s">
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17" t="s">
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="26"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="70"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1423,127 +1430,127 @@
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15" t="s">
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15" t="s">
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15" t="s">
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15" t="s">
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="16"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="68"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="35"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="30"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1551,56 +1558,56 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39">
+      <c r="H4" s="33"/>
+      <c r="I4" s="34">
         <v>4</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="42"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="37"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="31">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1608,56 +1615,56 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39">
+      <c r="H5" s="33"/>
+      <c r="I5" s="34">
         <v>3</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18"/>
-      <c r="AS5" s="18"/>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="42"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="37"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1665,56 +1672,56 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="43" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18"/>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="42"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="37"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="31">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="8"/>
@@ -1722,54 +1729,54 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="42"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="37"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="31">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
@@ -1777,56 +1784,56 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39">
+      <c r="H8" s="33"/>
+      <c r="I8" s="34">
         <v>20</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="42"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="37"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="31">
         <v>7</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1834,56 +1841,56 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39">
+      <c r="H9" s="33"/>
+      <c r="I9" s="34">
         <v>10</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="42"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="37"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1891,56 +1898,56 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="43" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="42"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="37"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
@@ -1948,56 +1955,56 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39">
+      <c r="H11" s="33"/>
+      <c r="I11" s="34">
         <v>30</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="42"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="37"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -2005,55 +2012,55 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39">
+      <c r="H12" s="33"/>
+      <c r="I12" s="34">
         <v>10</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="42"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="37"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="8" t="s">
         <v>46</v>
       </c>
@@ -2061,56 +2068,56 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39">
+      <c r="H13" s="33"/>
+      <c r="I13" s="34">
         <v>3</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="42"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="37"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
@@ -2118,56 +2125,56 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="18"/>
-      <c r="AT14" s="18"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="42"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="37"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="8" t="s">
         <v>47</v>
       </c>
@@ -2175,56 +2182,56 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39">
+      <c r="H15" s="33"/>
+      <c r="I15" s="34">
         <v>25</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="18"/>
-      <c r="AN15" s="18"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
-      <c r="AR15" s="18"/>
-      <c r="AS15" s="18"/>
-      <c r="AT15" s="18"/>
-      <c r="AU15" s="18"/>
-      <c r="AV15" s="18"/>
-      <c r="AW15" s="42"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="37"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
@@ -2232,56 +2239,56 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
-      <c r="AT16" s="18"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="42"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="37"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="8"/>
@@ -2289,54 +2296,54 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="18"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="42"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="37"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="8" t="s">
         <v>44</v>
       </c>
@@ -2344,56 +2351,56 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39">
+      <c r="H18" s="33"/>
+      <c r="I18" s="34">
         <v>17</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="42"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="37"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
@@ -2401,56 +2408,56 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18" t="s">
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="42"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="37"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="8"/>
@@ -2458,54 +2465,54 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="42"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="37"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
@@ -2513,56 +2520,56 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39">
+      <c r="H21" s="33"/>
+      <c r="I21" s="34">
         <v>60</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="42"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="37"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="8" t="s">
         <v>26</v>
       </c>
@@ -2570,56 +2577,56 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39">
+      <c r="H22" s="33"/>
+      <c r="I22" s="34">
         <v>30</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="18"/>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="42"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="37"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="8"/>
@@ -2627,191 +2634,193 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="18" t="s">
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AM23" s="43"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="18"/>
-      <c r="AS23" s="18"/>
-      <c r="AT23" s="18"/>
-      <c r="AU23" s="18"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="42"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="37"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="54"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="49"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="50"/>
       <c r="H25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="51">
         <f>SUM(I3:I24)</f>
         <v>212</v>
       </c>
-      <c r="AW25" s="57"/>
+      <c r="AW25" s="52"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="AW26" s="57"/>
+      <c r="A26" s="50"/>
+      <c r="AW26" s="52"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="59"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="61"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="54"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="54"/>
+      <c r="AL27" s="54"/>
+      <c r="AM27" s="54"/>
+      <c r="AN27" s="54"/>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="54"/>
+      <c r="AU27" s="54"/>
+      <c r="AV27" s="54"/>
+      <c r="AW27" s="56"/>
     </row>
     <row r="28" spans="1:50" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="62" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="63"/>
-      <c r="AW28" s="57"/>
+      <c r="K28" s="58"/>
+      <c r="AW28" s="52"/>
     </row>
     <row r="29" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="64"/>
-      <c r="K29" s="63"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="59"/>
+      <c r="K29" s="58"/>
       <c r="M29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
       <c r="X29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2821,71 +2830,71 @@
       <c r="AF29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="66"/>
-      <c r="AN29" s="66"/>
-      <c r="AW29" s="57"/>
+      <c r="AK29" s="61"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
+      <c r="AW29" s="52"/>
     </row>
     <row r="30" spans="1:50" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
       <c r="L30" s="13"/>
-      <c r="AW30" s="57"/>
+      <c r="AW30" s="52"/>
       <c r="AX30" s="13"/>
     </row>
     <row r="31" spans="1:50" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="68"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="70"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2909,6 +2918,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100104D2C8592D4474F94880268084ADF33" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d135d1c070796c4c976ae8b3742afbf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc157ffa-89df-417c-a5af-b14496f38a84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d336960e61f260b7b850f37502e37734" ns2:_="">
     <xsd:import namespace="dc157ffa-89df-417c-a5af-b14496f38a84"/>
@@ -3040,22 +3064,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc157ffa-89df-417c-a5af-b14496f38a84"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3D76E7-CD46-4355-9B1D-A70A2A104B38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3071,28 +3104,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc157ffa-89df-417c-a5af-b14496f38a84"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>